--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B985D08-03B1-4C38-867F-41AC7403EFB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9C117-8B2D-4826-BC7D-A87EBC6E9F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3090" windowWidth="21870" windowHeight="14370" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
+    <workbookView xWindow="795" yWindow="3960" windowWidth="21600" windowHeight="12090" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityInfo" sheetId="2" r:id="rId1"/>
@@ -23,6 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,6 +37,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Winters Michael</author>
+    <author>Home</author>
   </authors>
   <commentList>
     <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BC702313-0C29-40C2-95F1-305FDBD21335}">
@@ -257,6 +262,659 @@
             <charset val="129"/>
           </rPr>
           <t>사정거리</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="1" shapeId="0" xr:uid="{F6DB6BE6-DECF-4456-BF81-22C625B65AE1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Home:</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+n</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타에</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{92648B8B-74E2-4F5E-8760-0C58CC1A1046}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Home:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">
+공격력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스텟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>증가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 5%
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>방어력</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스텟</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>증가</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 5
+n</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="1" shapeId="0" xr:uid="{0E2810E2-E7ED-456D-94CE-3E915CB7CF35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Home:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>고정데미지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격력에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>n%) : 20%
+n</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 3</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{ACDCB3FA-AA36-4E50-9C75-023E100C511C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Home:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>기본</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>피격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 5%</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I11" authorId="1" shapeId="0" xr:uid="{B9C3F278-6099-48EE-A7A5-202047E2158A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>보스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스킬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>피격</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>대상</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 20%
+n</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>타에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 1</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>회</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>발동</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> : 3</t>
         </r>
       </text>
     </comment>
@@ -265,7 +923,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -346,10 +1004,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5#5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>duration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +1013,14 @@
   </si>
   <si>
     <t>distance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20#3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5#5#3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -366,7 +1028,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +1053,19 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -750,7 +1425,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -773,13 +1448,13 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -806,13 +1481,13 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -837,6 +1512,9 @@
       <c r="D3">
         <v>0</v>
       </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
       <c r="F3">
         <v>0</v>
       </c>
@@ -863,6 +1541,9 @@
       <c r="D4">
         <v>0</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
       <c r="F4">
         <v>0</v>
       </c>
@@ -889,6 +1570,9 @@
       <c r="D5">
         <v>0</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
       <c r="F5">
         <v>0</v>
       </c>
@@ -915,6 +1599,9 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="F6">
         <v>300</v>
       </c>
@@ -941,6 +1628,9 @@
       <c r="D7">
         <v>0</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
       <c r="F7">
         <v>0</v>
       </c>
@@ -951,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -967,6 +1657,9 @@
       <c r="D8">
         <v>0</v>
       </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
       <c r="F8">
         <v>0</v>
       </c>
@@ -977,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -995,6 +1688,9 @@
       <c r="D9">
         <v>0</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
       <c r="F9">
         <v>0</v>
       </c>
@@ -1004,8 +1700,8 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="3">
-        <v>20</v>
+      <c r="I9" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="O9" s="2"/>
     </row>
@@ -1022,6 +1718,9 @@
       <c r="D10">
         <v>0.5</v>
       </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
       <c r="F10">
         <v>100</v>
       </c>
@@ -1032,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1048,6 +1747,9 @@
       <c r="D11">
         <v>0.8</v>
       </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
       <c r="F11">
         <v>150</v>
       </c>
@@ -1057,8 +1759,8 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="3">
-        <v>0</v>
+      <c r="I11" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F9C117-8B2D-4826-BC7D-A87EBC6E9F15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2AAA82-56E8-4D1F-9984-4C2F6962E106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="3960" windowWidth="21600" windowHeight="12090" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="AbilityInfo" sheetId="2" r:id="rId1"/>
+    <sheet name="AbilityInfo" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
     <author>Home</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BC702313-0C29-40C2-95F1-305FDBD21335}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F227102C-11CF-4EBF-9D24-44295673100F}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{EF23F8A2-1413-498D-A234-FEC844BB5727}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A8331B10-13B9-4DFB-A795-EE64D7FC8746}">
       <text>
         <r>
           <rPr>
@@ -157,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{9E4D4E4B-D335-4E2A-9B52-5E4A7D3E197C}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{390D53E3-B531-4177-B817-94FAC4FE6B4B}">
       <text>
         <r>
           <rPr>
@@ -235,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BD504B54-1AC9-447B-8629-00B8032175DA}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{41F3785F-DEB5-4301-BD71-DFEBB3DAE8C7}">
       <text>
         <r>
           <rPr>
@@ -250,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{88AACDF4-91EA-49A1-A48D-E23F643397FD}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5036860F-F231-4D68-B504-A55B620DCF94}">
       <text>
         <r>
           <rPr>
@@ -265,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="1" shapeId="0" xr:uid="{F6DB6BE6-DECF-4456-BF81-22C625B65AE1}">
+    <comment ref="I7" authorId="1" shapeId="0" xr:uid="{387CA3A3-8008-4DA5-BB48-073BDAC57129}">
       <text>
         <r>
           <rPr>
@@ -353,7 +353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{92648B8B-74E2-4F5E-8760-0C58CC1A1046}">
+    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{BE458953-8DBA-4BDF-8F1B-E19FB5890B0B}">
       <text>
         <r>
           <rPr>
@@ -541,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="1" shapeId="0" xr:uid="{0E2810E2-E7ED-456D-94CE-3E915CB7CF35}">
+    <comment ref="I9" authorId="1" shapeId="0" xr:uid="{F4FD0CC0-E264-4F37-B74B-31FD3EF2246C}">
       <text>
         <r>
           <rPr>
@@ -661,7 +661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{ACDCB3FA-AA36-4E50-9C75-023E100C511C}">
+    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{5B2DB7C1-AFC3-4598-B3F7-071E18FC1CB2}">
       <text>
         <r>
           <rPr>
@@ -780,7 +780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="1" shapeId="0" xr:uid="{B9C3F278-6099-48EE-A7A5-202047E2158A}">
+    <comment ref="I11" authorId="1" shapeId="0" xr:uid="{B40C5019-3C2E-4894-A221-819F4AE25860}">
       <text>
         <r>
           <rPr>
@@ -1095,15 +1095,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1421,20 +1418,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C89F7602-A0CC-43DE-8351-249C7BD6A7EC}">
-  <dimension ref="A1:O13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F8B97B-38B3-485E-9A1F-9DE6CDA1686C}">
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="7" max="7" width="24.875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1462,12 +1455,8 @@
       <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1495,11 +1484,8 @@
       <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1524,11 +1510,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1553,11 +1539,11 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1582,11 +1568,11 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1611,11 +1597,11 @@
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1640,11 +1626,11 @@
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1669,13 +1655,11 @@
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1700,12 +1684,11 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1730,11 +1713,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1759,20 +1742,13 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2AAA82-56E8-4D1F-9984-4C2F6962E106}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D23848-9418-4505-BAF0-3DBBCD6C0DDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
+    <workbookView xWindow="6375" yWindow="675" windowWidth="21870" windowHeight="14370" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityInfo" sheetId="3" r:id="rId1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -923,7 +919,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -969,18 +965,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>무적</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스텟증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>보스공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1008,10 +992,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>distance</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1021,6 +1001,26 @@
   </si>
   <si>
     <t>5#5#3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>축복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강타</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1422,10 +1422,13 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1441,48 +1444,48 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -1606,7 +1609,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
@@ -1635,7 +1638,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>2</v>
@@ -1656,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -1664,7 +1667,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -1685,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -1693,7 +1696,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
         <v>2</v>
@@ -1722,7 +1725,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -1743,12 +1746,13 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74D23848-9418-4505-BAF0-3DBBCD6C0DDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D276940-B7C7-4910-A3A3-E3199EBD69C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6375" yWindow="675" windowWidth="21870" windowHeight="14370" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityInfo" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <author>Home</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{F227102C-11CF-4EBF-9D24-44295673100F}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{F227102C-11CF-4EBF-9D24-44295673100F}">
       <text>
         <r>
           <rPr>
@@ -138,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{A8331B10-13B9-4DFB-A795-EE64D7FC8746}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A8331B10-13B9-4DFB-A795-EE64D7FC8746}">
       <text>
         <r>
           <rPr>
@@ -153,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{390D53E3-B531-4177-B817-94FAC4FE6B4B}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{390D53E3-B531-4177-B817-94FAC4FE6B4B}">
       <text>
         <r>
           <rPr>
@@ -231,7 +231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{41F3785F-DEB5-4301-BD71-DFEBB3DAE8C7}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{41F3785F-DEB5-4301-BD71-DFEBB3DAE8C7}">
       <text>
         <r>
           <rPr>
@@ -246,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{5036860F-F231-4D68-B504-A55B620DCF94}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{5036860F-F231-4D68-B504-A55B620DCF94}">
       <text>
         <r>
           <rPr>
@@ -261,7 +261,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="1" shapeId="0" xr:uid="{387CA3A3-8008-4DA5-BB48-073BDAC57129}">
+    <comment ref="J7" authorId="1" shapeId="0" xr:uid="{387CA3A3-8008-4DA5-BB48-073BDAC57129}">
       <text>
         <r>
           <rPr>
@@ -349,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="1" shapeId="0" xr:uid="{BE458953-8DBA-4BDF-8F1B-E19FB5890B0B}">
+    <comment ref="J8" authorId="1" shapeId="0" xr:uid="{BE458953-8DBA-4BDF-8F1B-E19FB5890B0B}">
       <text>
         <r>
           <rPr>
@@ -537,7 +537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="1" shapeId="0" xr:uid="{F4FD0CC0-E264-4F37-B74B-31FD3EF2246C}">
+    <comment ref="J9" authorId="1" shapeId="0" xr:uid="{F4FD0CC0-E264-4F37-B74B-31FD3EF2246C}">
       <text>
         <r>
           <rPr>
@@ -657,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="1" shapeId="0" xr:uid="{5B2DB7C1-AFC3-4598-B3F7-071E18FC1CB2}">
+    <comment ref="J10" authorId="1" shapeId="0" xr:uid="{5B2DB7C1-AFC3-4598-B3F7-071E18FC1CB2}">
       <text>
         <r>
           <rPr>
@@ -776,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="1" shapeId="0" xr:uid="{B40C5019-3C2E-4894-A221-819F4AE25860}">
+    <comment ref="J11" authorId="1" shapeId="0" xr:uid="{B40C5019-3C2E-4894-A221-819F4AE25860}">
       <text>
         <r>
           <rPr>
@@ -919,7 +919,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1021,6 +1021,22 @@
   </si>
   <si>
     <t>보호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>descript</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 3타를 칠 때마다 1초 무적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 3타를 칠 때마다 5초간 공격력과 방어력이 5%상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛이 3타를 칠 때마다 고정데미지 20%의 추가 피해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1419,18 +1435,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F8B97B-38B3-485E-9A1F-9DE6CDA1686C}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1438,28 +1455,31 @@
         <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -1467,38 +1487,41 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
       </c>
       <c r="E3">
@@ -1513,21 +1536,24 @@
       <c r="H3">
         <v>0</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
       <c r="E4">
@@ -1542,21 +1568,24 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
       <c r="E5">
@@ -1571,110 +1600,122 @@
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>300</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
       <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1">
         <v>2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1">
         <v>2</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
       <c r="E9">
         <v>0</v>
       </c>
@@ -1687,65 +1728,74 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.5</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>100</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.8</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>150</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>19</v>
       </c>
     </row>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D276940-B7C7-4910-A3A3-E3199EBD69C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871B4FF-B2D5-4335-97D5-B8635CA0EFEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
+    <workbookView xWindow="4455" yWindow="525" windowWidth="21870" windowHeight="14370" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityInfo" sheetId="3" r:id="rId1"/>
@@ -1438,13 +1438,13 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dek00\Desktop\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLB\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5871B4FF-B2D5-4335-97D5-B8635CA0EFEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B58B46B-12D3-401E-9398-BE450B23B2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="525" windowWidth="21870" windowHeight="14370" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
   </bookViews>
   <sheets>
     <sheet name="AbilityInfo" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AbilityInfo!$A$2:$J$11</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,6 +26,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -919,7 +926,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1037,6 +1044,10 @@
   </si>
   <si>
     <t>유닛이 3타를 칠 때마다 고정데미지 20%의 추가 피해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1044,7 +1055,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1088,21 +1099,80 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1111,14 +1181,29 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1438,368 +1523,375 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="9" style="7"/>
     <col min="2" max="2" width="12.75" customWidth="1"/>
     <col min="3" max="3" width="55.25" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
         <v>300</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="6">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="3">
         <v>2</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
         <v>5</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+      <c r="A10" s="6">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <v>0.5</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>100</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="A11" s="6">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <v>0.8</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
         <v>150</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2" t="s">
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J11" xr:uid="{8D447B84-2148-42B7-9889-C402E9027B7C}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
+++ b/TheLordServer/Tools/xlsxToCsvGen/xlsx/AbilityTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\작업물\청강대\3학년1학기\산학팀\TheLordServer\TheLordServer\Tools\xlsxToCsvGen\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B58B46B-12D3-401E-9398-BE450B23B2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B878B34A-6252-4250-9681-2A7B54EF8CD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{28221591-4755-40DF-85F1-4A45518212D1}"/>
   </bookViews>
@@ -1526,7 +1526,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
-        <v>150</v>
+        <v>15</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
